--- a/spliced/falling/2023-03-25_17-58-20/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-20/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.3714289665222168</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.143467903137207</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.759878396987915</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.6699965000152588</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-58-20/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-20/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2751116752624511</v>
+        <v>-0.4484343528747558</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1511368751525879</v>
+        <v>0.5805449485778809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8383217453956604</v>
+        <v>-0.5587977170944214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4867386817932129</v>
+        <v>-0.6014323234558105</v>
       </c>
       <c r="B3" t="n">
-        <v>0.431523323059082</v>
+        <v>0.5997557640075684</v>
       </c>
       <c r="C3" t="n">
-        <v>1.750975966453552</v>
+        <v>-0.4316743612289428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.8521728515625</v>
+        <v>-0.2612781524658203</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0302209854125976</v>
+        <v>0.5193090438842773</v>
       </c>
       <c r="C4" t="n">
-        <v>2.461471796035767</v>
+        <v>-0.4944255352020263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.958938598632812</v>
+        <v>-0.2169137001037597</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.281919956207275</v>
+        <v>0.3676133155822754</v>
       </c>
       <c r="C5" t="n">
-        <v>3.567121505737305</v>
+        <v>-0.733814001083374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.48831844329834</v>
+        <v>-0.3025293350219726</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.316781997680664</v>
+        <v>0.4683008193969726</v>
       </c>
       <c r="C6" t="n">
-        <v>3.227118730545044</v>
+        <v>-0.587003767490387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.808905601501465</v>
+        <v>-0.4149298667907715</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.853449583053589</v>
+        <v>0.4677276611328125</v>
       </c>
       <c r="C7" t="n">
-        <v>3.023463010787964</v>
+        <v>-0.731619656085968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.194074630737305</v>
+        <v>-0.5511326789855957</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.235464096069336</v>
+        <v>0.6498098373413086</v>
       </c>
       <c r="C8" t="n">
-        <v>2.545171737670898</v>
+        <v>-0.522668182849884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.053683757781982</v>
+        <v>-0.5137066841125488</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.27866268157959</v>
+        <v>0.4998054504394531</v>
       </c>
       <c r="C9" t="n">
-        <v>1.822883725166321</v>
+        <v>-0.6402766704559326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40.49892044067383</v>
+        <v>-0.6838326454162598</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.35169410705566</v>
+        <v>0.6059346199035645</v>
       </c>
       <c r="C10" t="n">
-        <v>-22.61685752868652</v>
+        <v>-0.2089821100234985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.409126281738281</v>
+        <v>-0.2751116752624511</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.144435882568359</v>
+        <v>0.1511368751525879</v>
       </c>
       <c r="C11" t="n">
-        <v>4.332699298858643</v>
+        <v>0.8383217453956604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.568361282348633</v>
+        <v>-0.4867386817932129</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.331024646759033</v>
+        <v>0.431523323059082</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.451077461242676</v>
+        <v>1.750975966453552</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.690401554107666</v>
+        <v>-0.8521728515625</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6503615379333496</v>
+        <v>-0.0302209854125976</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9920754432678224</v>
+        <v>2.461471796035767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.458261489868164</v>
+        <v>-1.958938598632812</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3125958442687988</v>
+        <v>-1.281919956207275</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.417350053787231</v>
+        <v>3.567121505737305</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.057792663574219</v>
+        <v>-2.48831844329834</v>
       </c>
       <c r="B15" t="n">
-        <v>0.522294282913208</v>
+        <v>-2.316781997680664</v>
       </c>
       <c r="C15" t="n">
-        <v>4.646303176879883</v>
+        <v>3.227118730545044</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.069650650024414</v>
+        <v>-1.808905601501465</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6974973678588867</v>
+        <v>-2.853449583053589</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6427264213562012</v>
+        <v>3.023463010787964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.3710613250732422</v>
+        <v>-3.194074630737305</v>
       </c>
       <c r="B17" t="n">
-        <v>1.194808006286621</v>
+        <v>-2.235464096069336</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7181463241577148</v>
+        <v>2.545171737670898</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4149093627929687</v>
+        <v>-5.053683757781982</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6576159000396729</v>
+        <v>-2.27866268157959</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1679193973541259</v>
+        <v>1.822883725166321</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.8271169662475586</v>
+        <v>40.49892044067383</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0645728111267089</v>
+        <v>-10.35169410705566</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.119891881942749</v>
+        <v>-22.61685752868652</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.8584275245666504</v>
+        <v>1.409126281738281</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4949264526367187</v>
+        <v>-5.144435882568359</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4602115154266357</v>
+        <v>4.332699298858643</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-2.568361282348633</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.331024646759033</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.451077461242676</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-2.690401554107666</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6503615379333496</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9920754432678224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.458261489868164</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.3125958442687988</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.417350053787231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.057792663574219</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.522294282913208</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.646303176879883</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.069650650024414</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6974973678588867</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6427264213562012</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.3710613250732422</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.194808006286621</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.7181463241577148</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4149093627929687</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6576159000396729</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1679193973541259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.8271169662475586</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0645728111267089</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.119891881942749</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.8584275245666504</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4949264526367187</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.4602115154266357</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>-0.2275142669677734</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>0.6816375255584717</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>-0.3714289665222168</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.143467903137207</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.759878396987915</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.6699965000152588</v>
       </c>
     </row>
   </sheetData>
